--- a/forecast_summary_B0D2V2FPS7.xlsx
+++ b/forecast_summary_B0D2V2FPS7.xlsx
@@ -488,7 +488,7 @@
         <v>-22.12577319336522</v>
       </c>
       <c r="D2" t="n">
-        <v>-11.75703877713515</v>
+        <v>-12.0649011511458</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -524,7 +524,7 @@
         <v>-70.61697148788227</v>
       </c>
       <c r="D3" t="n">
-        <v>-60.89847029904524</v>
+        <v>-58.60255706277554</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
@@ -560,7 +560,7 @@
         <v>-92.87850469802409</v>
       </c>
       <c r="D4" t="n">
-        <v>-82.5657156685884</v>
+        <v>-82.17838698355609</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
@@ -596,7 +596,7 @@
         <v>-41.59667064398767</v>
       </c>
       <c r="D5" t="n">
-        <v>-31.20877989308915</v>
+        <v>-30.02321168508124</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -632,7 +632,7 @@
         <v>75.22508882576415</v>
       </c>
       <c r="D6" t="n">
-        <v>85.74472895046475</v>
+        <v>85.62308419655966</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -668,7 +668,7 @@
         <v>175.3478135360106</v>
       </c>
       <c r="D7" t="n">
-        <v>186.1953639870356</v>
+        <v>186.0589138553771</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -704,7 +704,7 @@
         <v>169.295295131984</v>
       </c>
       <c r="D8" t="n">
-        <v>179.1192745216059</v>
+        <v>179.9279473612815</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -740,7 +740,7 @@
         <v>58.78632180888359</v>
       </c>
       <c r="D9" t="n">
-        <v>70.1320687267006</v>
+        <v>69.74082401413624</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -776,7 +776,7 @@
         <v>-46.278773008698</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.53221435455279</v>
+        <v>-35.82501465321602</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -812,7 +812,7 @@
         <v>-32.35409084554779</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.84880343133083</v>
+        <v>-21.41693286155797</v>
       </c>
       <c r="E11" t="n">
         <v>17</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
         <v>92.53522946072407</v>
       </c>
       <c r="D12" t="n">
-        <v>102.3673684508703</v>
+        <v>103.1766388522287</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -884,7 +884,7 @@
         <v>196.8682518270654</v>
       </c>
       <c r="D13" t="n">
-        <v>207.0726140987557</v>
+        <v>207.2844332072682</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -920,7 +920,7 @@
         <v>164.7025628841462</v>
       </c>
       <c r="D14" t="n">
-        <v>175.1525590425176</v>
+        <v>175.877213565638</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>28.3267233726577</v>
       </c>
       <c r="D15" t="n">
-        <v>38.4256380656872</v>
+        <v>39.32749247658997</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -992,7 +992,7 @@
         <v>-60.04122128416662</v>
       </c>
       <c r="D16" t="n">
-        <v>-49.68505910582507</v>
+        <v>-50.14715971954683</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>4.261183091194372</v>
       </c>
       <c r="D17" t="n">
-        <v>15.38804637448898</v>
+        <v>14.84852449256483</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>157.4304685519537</v>
       </c>
       <c r="D18" t="n">
-        <v>168.1601295481196</v>
+        <v>167.6023283419961</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1100,7 +1100,7 @@
         <v>233.7692723560557</v>
       </c>
       <c r="D19" t="n">
-        <v>244.3164679000932</v>
+        <v>244.121833014396</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1136,7 +1136,7 @@
         <v>148.752406610352</v>
       </c>
       <c r="D20" t="n">
-        <v>159.2673809210679</v>
+        <v>160.1105965927824</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -1172,7 +1172,7 @@
         <v>-7.948342930574016</v>
       </c>
       <c r="D21" t="n">
-        <v>3.046537611419986</v>
+        <v>2.525499866017072</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>994</t>
         </is>
       </c>
     </row>

--- a/forecast_summary_B0D2V2FPS7.xlsx
+++ b/forecast_summary_B0D2V2FPS7.xlsx
@@ -482,13 +482,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>-22.12577319336522</v>
+        <v>7.585109291021748</v>
       </c>
       <c r="D2" t="n">
-        <v>-12.0649011511458</v>
+        <v>17.50742248621441</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-70.61697148788227</v>
+        <v>4.558364145367286</v>
       </c>
       <c r="D3" t="n">
-        <v>-58.60255706277554</v>
+        <v>15.17365609139898</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>-92.87850469802409</v>
+        <v>2.350603763387978</v>
       </c>
       <c r="D4" t="n">
-        <v>-82.17838698355609</v>
+        <v>12.06523935021543</v>
       </c>
       <c r="E4" t="n">
         <v>17</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>-41.59667064398767</v>
+        <v>1.306115077927196</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.02321168508124</v>
+        <v>11.53722871391827</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>75.22508882576415</v>
+        <v>1.242078225163146</v>
       </c>
       <c r="D6" t="n">
-        <v>85.62308419655966</v>
+        <v>11.08109115251194</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>175.3478135360106</v>
+        <v>1.045751831609341</v>
       </c>
       <c r="D7" t="n">
-        <v>186.0589138553771</v>
+        <v>11.00062184637103</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -698,13 +698,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>169.295295131984</v>
+        <v>0.03085151149253958</v>
       </c>
       <c r="D8" t="n">
-        <v>179.9279473612815</v>
+        <v>9.939417445314577</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>58.78632180888359</v>
+        <v>-1.023155047081561</v>
       </c>
       <c r="D9" t="n">
-        <v>69.74082401413624</v>
+        <v>8.698802590301725</v>
       </c>
       <c r="E9" t="n">
         <v>16</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>-46.278773008698</v>
+        <v>-1.209983937056405</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.82501465321602</v>
+        <v>10.1773424159818</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>-32.35409084554779</v>
+        <v>-1.352886432160408</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.41693286155797</v>
+        <v>9.466532258552792</v>
       </c>
       <c r="E11" t="n">
         <v>17</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>92.53522946072407</v>
+        <v>-3.079905809191681</v>
       </c>
       <c r="D12" t="n">
-        <v>103.1766388522287</v>
+        <v>7.332869496658104</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>196.8682518270654</v>
+        <v>-5.945668429650334</v>
       </c>
       <c r="D13" t="n">
-        <v>207.2844332072682</v>
+        <v>5.857101319602767</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>164.7025628841462</v>
+        <v>-7.167928660751791</v>
       </c>
       <c r="D14" t="n">
-        <v>175.877213565638</v>
+        <v>4.840735195519127</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3267233726577</v>
+        <v>-5.395541812838753</v>
       </c>
       <c r="D15" t="n">
-        <v>39.32749247658997</v>
+        <v>5.620352935775172</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>-60.04122128416662</v>
+        <v>-3.505820760500153</v>
       </c>
       <c r="D16" t="n">
-        <v>-50.14715971954683</v>
+        <v>7.526739200974731</v>
       </c>
       <c r="E16" t="n">
         <v>17</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.261183091194372</v>
+        <v>-5.533836781972873</v>
       </c>
       <c r="D17" t="n">
-        <v>14.84852449256483</v>
+        <v>5.531079068140014</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>157.4304685519537</v>
+        <v>-10.87302674226815</v>
       </c>
       <c r="D18" t="n">
-        <v>167.6023283419961</v>
+        <v>1.954378214009939</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>233.7692723560557</v>
+        <v>-13.97245484330971</v>
       </c>
       <c r="D19" t="n">
-        <v>244.121833014396</v>
+        <v>1.395159293020302</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1130,13 +1130,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>148.752406610352</v>
+        <v>-11.29861129610206</v>
       </c>
       <c r="D20" t="n">
-        <v>160.1105965927824</v>
+        <v>2.387328860638243</v>
       </c>
       <c r="E20" t="n">
         <v>18</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.948342930574016</v>
+        <v>-6.736052863524811</v>
       </c>
       <c r="D21" t="n">
-        <v>2.525499866017072</v>
+        <v>4.684767251832332</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
